--- a/al_results/Average/ALResult_News_Conversation_random_avg.xlsx
+++ b/al_results/Average/ALResult_News_Conversation_random_avg.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idawe\Desktop\GitHub\CrossNER-Active-Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idawe\Desktop\GitHub\CrossNER-Active-Learning\al_results\Average\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610A9B25-378E-4446-8AA0-E748C14BE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D70096-465A-4D97-B1F9-1B3C7A6A669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="11508" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="156" windowWidth="11508" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="11" r:id="rId1"/>
+    <sheet name="Avg" sheetId="11" r:id="rId1"/>
     <sheet name="1" sheetId="1" r:id="rId2"/>
     <sheet name="2" sheetId="2" r:id="rId3"/>
     <sheet name="3" sheetId="3" r:id="rId4"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
